--- a/results.xlsx
+++ b/results.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liuqinghua/PHD/GitHub/AxiomSelection/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07849B1D-2B6E-544B-A998-E2E8A20EC7B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{824059A7-9BFA-DB40-889E-B499880EF072}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" activeTab="1" xr2:uid="{72265602-9431-B04D-8782-2EF43DBB3832}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" activeTab="3" xr2:uid="{72265602-9431-B04D-8782-2EF43DBB3832}"/>
   </bookViews>
   <sheets>
     <sheet name="weighted_average" sheetId="1" r:id="rId1"/>
     <sheet name="average" sheetId="2" r:id="rId2"/>
+    <sheet name="no_selection" sheetId="3" r:id="rId3"/>
+    <sheet name="SInE" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="5">
   <si>
     <t>E</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -41,6 +43,10 @@
   </si>
   <si>
     <t>distribution</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>precision</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -87,9 +93,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -411,33 +420,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C3CC4C9-87CE-F245-824F-829D7407A561}">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="21.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="17.6640625" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="10.83203125" style="1"/>
+    <col min="3" max="8" width="10.83203125" style="1"/>
+    <col min="9" max="9" width="18.83203125" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-    </row>
-    <row r="2" spans="1:8" ht="27" customHeight="1">
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="27" customHeight="1">
       <c r="C2" s="1">
         <v>32</v>
       </c>
@@ -457,7 +471,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="28" customHeight="1">
+    <row r="3" spans="1:9" ht="28" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -482,8 +496,11 @@
       <c r="H3" s="1">
         <v>154</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3" s="1">
+        <v>6.8000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -520,10 +537,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB50F41E-99BC-B544-8D6D-8BF8F9B2295E}">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:H2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -534,20 +551,23 @@
     <col min="4" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="2">
+      <c r="C1" s="3">
         <v>1</v>
       </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="C2" s="1">
         <v>32</v>
       </c>
@@ -567,7 +587,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -592,8 +612,11 @@
       <c r="H3" s="1">
         <v>154</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3" s="1">
+        <v>6.3E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -627,4 +650,97 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99435F75-24D4-3C4B-9DBF-574D197A5D6B}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="2" max="2" width="15.83203125" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2">
+        <v>663</v>
+      </c>
+      <c r="C2">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2">
+        <v>877</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72A3950E-B482-C54C-BE9A-D91C79935D30}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="2"/>
+    <col min="2" max="2" width="18.5" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="10.83203125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2">
+        <v>992</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/results.xlsx
+++ b/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liuqinghua/PHD/GitHub/AxiomSelection/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{824059A7-9BFA-DB40-889E-B499880EF072}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3C2F4EE-0EE5-E840-A57E-0AD5721D6761}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" activeTab="3" xr2:uid="{72265602-9431-B04D-8782-2EF43DBB3832}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" activeTab="2" xr2:uid="{72265602-9431-B04D-8782-2EF43DBB3832}"/>
   </bookViews>
   <sheets>
     <sheet name="weighted_average" sheetId="1" r:id="rId1"/>
@@ -656,7 +656,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99435F75-24D4-3C4B-9DBF-574D197A5D6B}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -704,7 +704,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72A3950E-B482-C54C-BE9A-D91C79935D30}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
